--- a/trunk/_svn-document/Requirements_Traceability_Matrix_13745/rtm_TMP_AuctionOnline.xlsx
+++ b/trunk/_svn-document/Requirements_Traceability_Matrix_13745/rtm_TMP_AuctionOnline.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="792" windowWidth="14448" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="3840" yWindow="795" windowWidth="14445" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RevisionReviewOutcome_History" sheetId="4" r:id="rId1"/>
@@ -13,22 +13,22 @@
     <sheet name="Data" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Needs!$A$3:$H$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Needs!$A$3:$H$29</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Requirements!$A$3:$J$28</definedName>
-    <definedName name="AddressedBy">Data!$P$3:$P$7</definedName>
-    <definedName name="BusinessArea">Data!$A$3:$A$8</definedName>
-    <definedName name="BusinessPriority">Data!$C$3:$C$5</definedName>
-    <definedName name="ImplementationPriority">Data!$R$3:$R$6</definedName>
-    <definedName name="NeedID">Needs!$A$4:$A$28</definedName>
+    <definedName name="AddressedBy">Data!$P$3:$P$6</definedName>
+    <definedName name="BusinessArea">Data!$A$3:$A$7</definedName>
+    <definedName name="BusinessPriority">Data!$C$3:$C$4</definedName>
+    <definedName name="ImplementationPriority">Data!$R$3:$R$5</definedName>
+    <definedName name="NeedID">Needs!$A$4:$A$29</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Needs!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Requirements!$3:$3</definedName>
     <definedName name="ReqTypeAbbreviations">Data!#REF!</definedName>
-    <definedName name="ReqTypeName">Data!$M$3:$M$11</definedName>
-    <definedName name="Status">Data!$E$3:$E$6</definedName>
-    <definedName name="SubjectArea">Data!$G$3:$G$8</definedName>
-    <definedName name="TestabilityMethod">Data!$T$3:$T$7</definedName>
-    <definedName name="UseCaseID">Data!$I$3:$I$13</definedName>
-    <definedName name="UseCaseName">Data!$J$3:$J$13</definedName>
+    <definedName name="ReqTypeName">Data!$M$3:$M$10</definedName>
+    <definedName name="Status">Data!$E$3:$E$5</definedName>
+    <definedName name="SubjectArea">Data!$G$3:$G$7</definedName>
+    <definedName name="TestabilityMethod">Data!$T$3:$T$6</definedName>
+    <definedName name="UseCaseID">Data!$I$3:$I$12</definedName>
+    <definedName name="UseCaseName">Data!$J$3:$J$12</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="229">
   <si>
     <t>Notes</t>
   </si>
@@ -584,9 +584,6 @@
     <t>Addressed by</t>
   </si>
   <si>
-    <t>Public User</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -594,12 +591,6 @@
   </si>
   <si>
     <t>Primary Actor</t>
-  </si>
-  <si>
-    <t>Admin User</t>
-  </si>
-  <si>
-    <t>Public User or Admin User</t>
   </si>
   <si>
     <t>Description of Change</t>
@@ -792,36 +783,6 @@
     <t>UC-010</t>
   </si>
   <si>
-    <t>UC-001 NAME</t>
-  </si>
-  <si>
-    <t>UC-002 NAME</t>
-  </si>
-  <si>
-    <t>UC-003 NAME</t>
-  </si>
-  <si>
-    <t>UC-004 NAME</t>
-  </si>
-  <si>
-    <t>UC-005 NAME</t>
-  </si>
-  <si>
-    <t>UC-006 NAME</t>
-  </si>
-  <si>
-    <t>UC-007 NAME</t>
-  </si>
-  <si>
-    <t>UC-008 NAME</t>
-  </si>
-  <si>
-    <t>UC-009 NAME</t>
-  </si>
-  <si>
-    <t>UC-010 NAME</t>
-  </si>
-  <si>
     <t>Need ID</t>
   </si>
   <si>
@@ -994,27 +955,6 @@
     <t>Subject Area</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>SAMPLE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Program Area Managers need the ability to identify all program area interests in a facility</t>
-    </r>
-  </si>
-  <si>
     <t>Testability</t>
   </si>
   <si>
@@ -1100,100 +1040,6 @@
     <t>Implementation Priorities</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">business requirement </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>states a high-level business objective. It should answer the question: “Why are we devoting resources to this requirement?”
-Categories:
-• Financial benefits such as reduced costs, increased revenue, enhanced market share
-• Improvements in business operations
-• Strategic positioning or brand enhancement
-• Regulatory compliance</t>
-    </r>
-  </si>
-  <si>
-    <t>Information that the system will Create, Read, Update, and/or Delete (CRUD). Typically this includes the name of a business object, its attributes, rules, and CRUD functions.</t>
-  </si>
-  <si>
-    <t>An interface between the system and the outside world. There are four types of external interfaces:
-• User interface
-• Hardware
-• Software
-• Communication</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A single statement of </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">individual function. Sometimes referred to as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">TSS statements: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>“The system shall …” Functional requirements and other types of requirements information typically are embedded in the software requirements specification (SRS) document.</t>
-    </r>
-  </si>
-  <si>
-    <t>A limitation of the solution or of its implementation. Examples:
-• “Funding for this project is only $5,000.”
-• “The UI has to be compatible with the following web browsers: …”
-• “Coding must be in Java.”</t>
-  </si>
-  <si>
-    <t>A solution and/or statement of design. Usually stated by a business stakeholder, development or implementaton team member, or even by the BA during project initiation or analysis. Examples:
-• “We’ll need a new server for this application refresh.”
-• “The public will have to book reservations only through the online system.”
-It’s usually best to work backwards from a solution idea to identify the underlying business requirement: “What problem are we trying to solve?”</t>
-  </si>
-  <si>
     <t>Test Plan</t>
   </si>
   <si>
@@ -1215,258 +1061,281 @@
     <t>Source of Need Statement</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">business rule </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">is an organization policy, industry standard, or law or government regulation that defines, constrains, or governs some aspect of the business. Most business rules exist independently from a specific software system (that is, they are not software requirements), should be treated as an enterprise-level asset, and should be documented separately from system-specific requirements. A business rule can lead to various sets of functional requirements.
-Business rule sub-types include:
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Action Enabler: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">describes an action to be taken when a condition is true, usually written as an “if-then” or “when-then” statement (for example, “If the customer has an active membership, then display membership rates”)
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Business Constraint: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a policy (whether determined by management or an external regulatory agency) that limits what the system or an actor within the system can do.
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Computation, Calculation, or Formula: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">self-explanatory (for example, “The total price shall be calculated as …”).
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Fact: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">a simple factual statement, often associated with data attributes (for example, “Each customer has a unique customer number”).
-• </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Inference: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">describes a change to the status of data, usually written as an “if-then” statement (for example, “If the customer does not pay for the reservation by the payment due date, then change the reservation status to </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>canceled”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A quality characteristic that the system should possess. Sometimes referred to as </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">quality factors </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">or </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">quality of service requirements. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Examples:
-• Performance
-• Reliability
-• Scalability
-• Security
-• Redundancy
-• Backup requirements
-• Usability
-• Availability</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Describes a process (collection of individual steps). Examples (possible use case name is underlined):
-• “Users will be able to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>post payments to customer accounts</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.”
-• “Users will be able to </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>run accounts receivable agings reports</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.”
-If starting from a use case or usage scenario requirement, it can be used as a way to identify functional requirements. Its name should always start with an action verb.</t>
-    </r>
-  </si>
-  <si>
     <t>Need(s)</t>
+  </si>
+  <si>
+    <t>Người sử dụng đăng ký để trở thành member của hệ thống</t>
+  </si>
+  <si>
+    <t>Member sau khi cuộc đấu giá kết thúc nhận được email thống báo kết quả đấu giá</t>
+  </si>
+  <si>
+    <t>Seller quyết định sẽ bán sản phẩm cho người nào, dựa vào danh sách users đã tham gia cuộc đấu giá</t>
+  </si>
+  <si>
+    <t>Trong quá trình đang đấu giá, member đang tham gia có thể thấy được danh sách người tham gia, thông tin sản phẩm, số tiền (bid) hiện tại</t>
+  </si>
+  <si>
+    <t>Member của hệ thống tham gia đấu giá một sản phẩm, đặt giá cho sản phẩm</t>
+  </si>
+  <si>
+    <t>UC-011</t>
+  </si>
+  <si>
+    <t>UC-013</t>
+  </si>
+  <si>
+    <t>UC-014</t>
+  </si>
+  <si>
+    <t>UC-015</t>
+  </si>
+  <si>
+    <t>UC-016</t>
+  </si>
+  <si>
+    <t>UC-017</t>
+  </si>
+  <si>
+    <t>UC-018</t>
+  </si>
+  <si>
+    <t>UC-019</t>
+  </si>
+  <si>
+    <t>UC-020</t>
+  </si>
+  <si>
+    <t>UC-021</t>
+  </si>
+  <si>
+    <t>UC-022</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Create account</t>
+  </si>
+  <si>
+    <t>Get back password</t>
+  </si>
+  <si>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>View product detail</t>
+  </si>
+  <si>
+    <t>View products</t>
+  </si>
+  <si>
+    <t>Embed product</t>
+  </si>
+  <si>
+    <t>Feed Back</t>
+  </si>
+  <si>
+    <t>Add new product</t>
+  </si>
+  <si>
+    <t>Places bid</t>
+  </si>
+  <si>
+    <t>View own auction history</t>
+  </si>
+  <si>
+    <t>User Manager</t>
+  </si>
+  <si>
+    <t>Manage Genre</t>
+  </si>
+  <si>
+    <t>View trading history</t>
+  </si>
+  <si>
+    <t>Configure system</t>
+  </si>
+  <si>
+    <t>Create a shop</t>
+  </si>
+  <si>
+    <t>View shop</t>
+  </si>
+  <si>
+    <t>Manage shop</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Registered User</t>
+  </si>
+  <si>
+    <t>Registered User buyer</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>BA_07</t>
+  </si>
+  <si>
+    <t>BA_08</t>
+  </si>
+  <si>
+    <t>BA_09</t>
+  </si>
+  <si>
+    <t>BA_10</t>
+  </si>
+  <si>
+    <t>BA_11</t>
+  </si>
+  <si>
+    <t>BA_12</t>
+  </si>
+  <si>
+    <t>BA_13</t>
+  </si>
+  <si>
+    <t>BA_14</t>
+  </si>
+  <si>
+    <t>BA_15</t>
+  </si>
+  <si>
+    <t>BA_16</t>
+  </si>
+  <si>
+    <t>BA_17</t>
+  </si>
+  <si>
+    <t>BA_18</t>
+  </si>
+  <si>
+    <t>BA_19</t>
+  </si>
+  <si>
+    <t>BA_20</t>
+  </si>
+  <si>
+    <t>BA_21</t>
+  </si>
+  <si>
+    <t>Buyer xem danh sách các sản phẩm đã tham gia đấu giá</t>
+  </si>
+  <si>
+    <t>Buyer thấy được thông tin đặt giá của sản mỗi sản phẩm, ai đặt, lúc nào</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm đang đấu giá “hot”</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm sắp kết thúc đấu giá</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm sản phẩm tương tự.</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm cùng seller</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm chuẩn bị đưa lên sàn</t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm đã xem qua</t>
+  </si>
+  <si>
+    <t>Seller đăng sản phẩm vào hệ thống</t>
+  </si>
+  <si>
+    <t>Thấy được kết quả đăng sản phẩm</t>
+  </si>
+  <si>
+    <t>Xem thấy danh sách các sản phẩm chưa đấu giá</t>
+  </si>
+  <si>
+    <t>Xem thấy danh sách các sản phẩm đang đấu giá</t>
+  </si>
+  <si>
+    <t>Xem thấy danh sách các sản phẩm đã đấu giá xong</t>
+  </si>
+  <si>
+    <t>Xem thấy nội dung chi tiết một sản phẩm</t>
+  </si>
+  <si>
+    <t>Manage own product</t>
+  </si>
+  <si>
+    <t>Thấy được màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào hệ thống, lưu session</t>
+  </si>
+  <si>
+    <t>Đăng xuất khỏi hệ thống, xóa session</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Cập nhật thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Change profile</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách user sẽ được đánh giá</t>
+  </si>
+  <si>
+    <t>Đánh giá điểm feedback cho một user</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện quản lý thể loại</t>
+  </si>
+  <si>
+    <t>Update thành công thể loại</t>
+  </si>
+  <si>
+    <t>Thêm mới một thể loại</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,27 +1422,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1675,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1837,9 +1685,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1909,6 +1754,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1987,6 +1837,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2021,6 +1872,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2196,27 +2048,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.109375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="52.88671875" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="9"/>
+    <col min="1" max="1" width="9.42578125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="52.85546875" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="24" customHeight="1">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2224,7 +2076,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" s="10" customFormat="1">
+    <row r="2" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>2</v>
       </c>
@@ -2235,10 +2087,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="31" t="s">
         <v>10</v>
@@ -2248,83 +2100,83 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="30"/>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
       <c r="D4" s="33"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="30"/>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
       <c r="D5" s="33"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
       <c r="D6" s="33"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="31"/>
       <c r="C7" s="32"/>
       <c r="D7" s="33"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="31"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="31"/>
       <c r="C9" s="33"/>
       <c r="D9" s="33"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="31"/>
       <c r="C10" s="33"/>
       <c r="D10" s="33"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="33"/>
       <c r="D12" s="33"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="30"/>
       <c r="B13" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="33" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="32"/>
       <c r="B14" s="34"/>
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
     </row>
-    <row r="15" spans="1:4" ht="42" customHeight="1">
+    <row r="15" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="11"/>
     </row>
-    <row r="16" spans="1:4" ht="18">
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -2332,7 +2184,7 @@
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" s="10" customFormat="1">
+    <row r="17" spans="1:4" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
@@ -2346,49 +2198,49 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="35"/>
       <c r="B18" s="31"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="33"/>
       <c r="D23" s="32"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="32"/>
       <c r="B25" s="34"/>
       <c r="C25" s="32"/>
@@ -2410,34 +2262,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="30" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2447,7 +2299,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="9.9" customHeight="1">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2457,361 +2309,648 @@
       <c r="G2" s="17"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" s="40" customFormat="1" ht="28.8">
+    <row r="3" spans="1:8" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C3" s="41" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E3" s="38" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="G3" s="42" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="28.8">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="22"/>
+        <v>213</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="27"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="22"/>
+        <v>75</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="22"/>
+        <v>77</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="D6" s="24"/>
       <c r="E6" s="21" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="22"/>
+        <v>78</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>113</v>
+      </c>
       <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="E7" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F7" s="24" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="G7" s="26"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="22"/>
+        <v>79</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="E8" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F8" s="24"/>
       <c r="G8" s="26"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="22"/>
+        <v>80</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="E9" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F9" s="24" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="G9" s="26" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="22"/>
+        <v>81</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="E10" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F10" s="24"/>
       <c r="G10" s="26"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="22"/>
+        <v>82</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F11" s="24"/>
       <c r="G11" s="26"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="14.4">
-      <c r="A12" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="22"/>
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>187</v>
+      </c>
       <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F12" s="24"/>
       <c r="G12" s="26"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="22"/>
+        <v>83</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>189</v>
+      </c>
       <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="E13" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F13" s="24"/>
       <c r="G13" s="26"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>189</v>
+      </c>
       <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="E14" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F14" s="24"/>
       <c r="G14" s="26"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>189</v>
+      </c>
       <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F15" s="24"/>
       <c r="G15" s="26"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="22"/>
+        <v>86</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>189</v>
+      </c>
       <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F16" s="24"/>
       <c r="G16" s="26"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F17" s="24"/>
       <c r="G17" s="26"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="22"/>
+        <v>88</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>190</v>
+      </c>
       <c r="D18" s="24"/>
-      <c r="E18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F18" s="24"/>
       <c r="G18" s="26"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="22"/>
+        <v>89</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="D19" s="24"/>
-      <c r="E19" s="21"/>
+      <c r="E19" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F19" s="24"/>
       <c r="G19" s="26"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>209</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="24"/>
+      <c r="E20" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F20" s="24"/>
-      <c r="G20" s="27"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="22"/>
+        <v>91</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="E21" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F21" s="24"/>
       <c r="G21" s="27"/>
-      <c r="H21" s="21"/>
-    </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="14.4">
+      <c r="H21" s="24"/>
+    </row>
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="22"/>
+        <v>92</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F22" s="24"/>
       <c r="G22" s="27"/>
       <c r="H22" s="21"/>
     </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="22"/>
+        <v>93</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F23" s="24"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="24"/>
-    </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="14.4">
+      <c r="G23" s="27"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="22"/>
+        <v>94</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="E24" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="21"/>
-    </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="14.4">
+      <c r="G24" s="26"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="22"/>
+        <v>95</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="E25" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="27"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="37"/>
-      <c r="C26" s="22"/>
+        <v>96</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="27"/>
       <c r="H26" s="21"/>
     </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27" s="37"/>
-      <c r="C27" s="22"/>
+        <v>97</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="27"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="14.4">
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>112</v>
-      </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="22"/>
+        <v>98</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>183</v>
+      </c>
       <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="21" t="s">
+        <v>116</v>
+      </c>
       <c r="F28" s="24"/>
       <c r="G28" s="27"/>
       <c r="H28" s="21"/>
     </row>
+    <row r="29" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="24"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="24"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="24"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="24"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="24"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="37"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="37"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="21"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36" s="37"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="21"/>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B37" s="37"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="21"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B38" s="37"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="21"/>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B39" s="37"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="21"/>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="37"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:H28">
-    <filterColumn colId="0"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="4"/>
-    <filterColumn colId="5"/>
-  </autoFilter>
-  <conditionalFormatting sqref="F29:G1048576 F1:G2">
+  <autoFilter ref="A3:H29"/>
+  <conditionalFormatting sqref="F41:G1048576 F1:G2">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -2822,23 +2961,20 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1030" yWindow="454" count="8">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="As needed, includes any additional clarifying notes." sqref="H4:H28"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Subject Area" prompt="OPTIONAL field for indicating a subject (topic) area that this need addresses." sqref="G4:G28">
+  <dataValidations xWindow="1039" yWindow="192" count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="As needed, includes any additional clarifying notes." sqref="H4:H40"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Subject Area" prompt="OPTIONAL field for indicating a subject (topic) area that this need addresses." sqref="G4:G40">
       <formula1>SubjectArea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Records how far the need is towards being accepted. Select from following:_x000a__x000a_ * Proposed_x000a_ * Under Review_x000a_ * Accepted_x000a_ * Rejected" sqref="F4:F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Records how far the need is towards being accepted. Select from following:_x000a__x000a_ * Proposed_x000a_ * Under Review_x000a_ * Accepted_x000a_ * Rejected" sqref="F4:F40">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Source of Need Statement" prompt="Identifes where (or from whom) this statement originated. Reference the meeting/session where the statement was identified." sqref="D4:D28"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID" prompt="A unique three-digit number. Prefix with an apostrophe (') to keep leading zeroes in Excel. To add further detail to an existing numbered need, use an outline numbering format, as follows:_x000a_001_x000a_001.02_x000a_001.05.03_x000a_002" sqref="A4:A28"/>
-    <dataValidation errorStyle="warning" showInputMessage="1" promptTitle="Statement of Need" prompt="Statement of WHAT a business or user needs, independent of HOW it is delivered. Can be a clear statement of the following:_x000a__x000a_ * a particular problem the business or user needs solved_x000a_ * an ability (or capability) that is needed" sqref="B4:B28"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Business Area" prompt="Identifies business area this need applies to (or will benefit)." sqref="C4:C28">
-      <formula1>BusinessArea</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Business Priority" prompt="Identifies how important this need is to the business._x000a__x000a_ * High: Critical need for business; must be addressed by solution._x000a_ * Medium: Very important to business; should be addressed by solution._x000a_ * Low: A nice-to-have feature." sqref="E4:E28">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Source of Need Statement" prompt="Identifes where (or from whom) this statement originated. Reference the meeting/session where the statement was identified." sqref="D4:D40"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID" prompt="A unique three-digit number. Prefix with an apostrophe (') to keep leading zeroes in Excel. To add further detail to an existing numbered need, use an outline numbering format, as follows:_x000a_001_x000a_001.02_x000a_001.05.03_x000a_002" sqref="A4:A33"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Business Priority" prompt="Identifies how important this need is to the business._x000a__x000a_ * High: Critical need for business; must be addressed by solution._x000a_ * Medium: Very important to business; should be addressed by solution._x000a_ * Low: A nice-to-have feature." sqref="E4:E40">
       <formula1>BusinessPriority</formula1>
     </dataValidation>
+    <dataValidation errorStyle="warning" showInputMessage="1" promptTitle="Statement of Need" prompt="Statement of WHAT a business or user needs, independent of HOW it is delivered. Can be a clear statement of the following:_x000a__x000a_ * a particular problem the business or user needs solved_x000a_ * an ability (or capability) that is needed" sqref="B4:B40"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2849,11 +2985,23 @@
 3/10/2011&amp;C&amp;9Page &amp;P of &amp;N&amp;R&amp;9&amp;F</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1039" yWindow="192" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Data!$A$3:$A$23</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
@@ -2861,28 +3009,28 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="1"/>
-    <col min="9" max="9" width="20.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="30" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1">
+    <row r="1" spans="1:10" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2894,7 +3042,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
     </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" ht="9.9" customHeight="1">
+    <row r="2" spans="1:10" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2906,7 +3054,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" ht="28.8">
+    <row r="3" spans="1:10" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>9</v>
       </c>
@@ -2914,45 +3062,45 @@
         <v>8</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="44" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="4" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="23">
         <v>1</v>
@@ -2962,19 +3110,19 @@
         <v>12</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="J4" s="21"/>
     </row>
-    <row r="5" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="5" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>22</v>
@@ -2990,19 +3138,19 @@
         <v>12</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J5" s="24"/>
     </row>
-    <row r="6" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="6" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>24</v>
@@ -3018,25 +3166,25 @@
         <v>12</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="7" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>27</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F7" s="25">
         <v>1</v>
@@ -3046,19 +3194,19 @@
         <v>15</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="8" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>26</v>
@@ -3074,25 +3222,25 @@
         <v>16</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="9" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F9" s="25">
         <v>1</v>
@@ -3102,19 +3250,19 @@
         <v>17</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="10" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>23</v>
@@ -3130,19 +3278,19 @@
         <v>18</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="11" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>28</v>
@@ -3158,47 +3306,47 @@
         <v>19</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:10" s="14" customFormat="1" ht="28.8">
+    <row r="12" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F12" s="25">
         <v>1</v>
       </c>
       <c r="G12" s="21"/>
       <c r="H12" s="24" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="13" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>20</v>
@@ -3211,50 +3359,50 @@
       </c>
       <c r="G13" s="21"/>
       <c r="H13" s="24" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="14" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
       </c>
       <c r="G14" s="21"/>
       <c r="H14" s="24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="15" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>24</v>
@@ -3267,22 +3415,22 @@
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="16" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>27</v>
@@ -3295,28 +3443,28 @@
       </c>
       <c r="G16" s="24"/>
       <c r="H16" s="24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="17" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F17" s="23">
         <v>1</v>
@@ -3326,19 +3474,19 @@
         <v>15</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="18" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>25</v>
@@ -3354,25 +3502,25 @@
         <v>16</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="19" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F19" s="23">
         <v>2</v>
@@ -3382,15 +3530,15 @@
       <c r="I19" s="24"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="20" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>28</v>
@@ -3406,15 +3554,15 @@
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" ht="28.8">
+    <row r="21" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B21" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>21</v>
@@ -3430,21 +3578,21 @@
       <c r="I21" s="24"/>
       <c r="J21" s="21"/>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="22" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B22" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="23">
         <v>1</v>
@@ -3454,15 +3602,15 @@
       <c r="I22" s="24"/>
       <c r="J22" s="21"/>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="23" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>22</v>
@@ -3478,21 +3626,21 @@
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="24" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F24" s="23">
         <v>1</v>
@@ -3502,15 +3650,15 @@
       <c r="I24" s="24"/>
       <c r="J24" s="21"/>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="25" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>27</v>
@@ -3526,15 +3674,15 @@
       <c r="I25" s="24"/>
       <c r="J25" s="21"/>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="26" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>26</v>
@@ -3550,21 +3698,21 @@
       <c r="I26" s="24"/>
       <c r="J26" s="21"/>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="27" spans="1:10" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F27" s="23">
         <v>1</v>
@@ -3574,15 +3722,15 @@
       <c r="I27" s="24"/>
       <c r="J27" s="21"/>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" ht="14.4">
+    <row r="28" spans="1:10" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>23</v>
@@ -3599,14 +3747,7 @@
       <c r="J28" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:J28">
-    <filterColumn colId="0"/>
-    <filterColumn colId="2"/>
-    <filterColumn colId="3"/>
-    <filterColumn colId="6"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-  </autoFilter>
+  <autoFilter ref="A3:J28"/>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="H29:I1048576 H1:I2 F1:F1048576">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="equal">
@@ -3624,7 +3765,7 @@
       <formula>99</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <dataValidations xWindow="459" yWindow="554" count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Implementation Priority" prompt="1: Must Have_x000a_2: Should Have_x000a_3: Nice to Have_x000a_99: Dropped From Project (Inactivated)" sqref="F4:F28">
       <formula1>ImplementationPriority</formula1>
     </dataValidation>
@@ -3657,493 +3798,709 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <tabColor theme="0" tint="-0.34998626667073579"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" customWidth="1"/>
-    <col min="2" max="2" width="1.6640625" style="51" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="1.6640625" style="51" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="1.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.7109375" style="51" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="51" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.6640625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="1.6640625" style="51" customWidth="1"/>
-    <col min="13" max="13" width="38.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="1.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.7109375" style="51" customWidth="1"/>
+    <col min="13" max="13" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="89" customWidth="1"/>
-    <col min="15" max="15" width="1.6640625" style="51" customWidth="1"/>
-    <col min="16" max="16" width="18.44140625" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="51" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="1.6640625" style="51" customWidth="1"/>
-    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="1.7109375" style="51" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="51" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="51" customWidth="1"/>
+    <col min="20" max="20" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="19" customFormat="1" ht="36">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:20" s="19" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" s="57"/>
+      <c r="E1" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F1" s="57"/>
+      <c r="G1" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="57"/>
+      <c r="I1" s="52" t="s">
         <v>121</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="58"/>
-      <c r="E1" s="59" t="s">
-        <v>145</v>
-      </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="52" t="s">
-        <v>135</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
-      <c r="L1" s="58"/>
+      <c r="L1" s="57"/>
       <c r="M1" s="52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N1" s="52"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="59" t="s">
+      <c r="O1" s="57"/>
+      <c r="P1" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="57" t="s">
-        <v>146</v>
-      </c>
-      <c r="S1" s="58"/>
-      <c r="T1" s="57" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="43" customFormat="1" ht="18">
+      <c r="Q1" s="57"/>
+      <c r="R1" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="S1" s="57"/>
+      <c r="T1" s="56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="57"/>
+      <c r="G2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="57"/>
+      <c r="I2" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="58"/>
-      <c r="E2" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="58"/>
-      <c r="I2" s="54" t="s">
+      <c r="L2" s="57"/>
+      <c r="M2" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="58"/>
-      <c r="M2" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2" s="60" t="s">
+      <c r="N2" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="O2" s="58"/>
+      <c r="O2" s="57"/>
       <c r="P2" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" s="58"/>
+        <v>31</v>
+      </c>
+      <c r="Q2" s="57"/>
       <c r="R2" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="58"/>
+        <v>31</v>
+      </c>
+      <c r="S2" s="57"/>
       <c r="T2" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" s="45" customFormat="1" ht="115.2">
-      <c r="A3" s="55" t="s">
-        <v>122</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="55" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="D3" s="49"/>
-      <c r="E3" s="56" t="s">
-        <v>131</v>
+      <c r="E3" s="46" t="s">
+        <v>119</v>
       </c>
       <c r="F3" s="49"/>
-      <c r="G3" s="55" t="s">
-        <v>136</v>
+      <c r="G3" s="16" t="s">
+        <v>124</v>
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="L3" s="49"/>
       <c r="M3" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>147</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="N3" s="21"/>
       <c r="O3" s="49"/>
-      <c r="P3" s="56" t="s">
-        <v>67</v>
+      <c r="P3" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="Q3" s="49"/>
-      <c r="R3" s="55">
-        <v>1</v>
+      <c r="R3" s="16">
+        <v>2</v>
       </c>
       <c r="S3" s="49"/>
-      <c r="T3" s="55" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" s="45" customFormat="1" ht="301.5" customHeight="1">
+      <c r="T3" s="16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="49"/>
+        <v>109</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="50"/>
       <c r="E4" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="49"/>
+        <v>119</v>
+      </c>
+      <c r="F4" s="50"/>
       <c r="G4" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H4" s="49"/>
+        <v>125</v>
+      </c>
+      <c r="H4" s="50"/>
       <c r="I4" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>75</v>
+        <v>158</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="49"/>
+        <v>177</v>
+      </c>
+      <c r="L4" s="50"/>
       <c r="M4" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="O4" s="49"/>
+        <v>24</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="50"/>
       <c r="P4" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="16">
-        <v>2</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="16" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="47" customFormat="1" ht="28.8">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="46">
+        <v>3</v>
+      </c>
+      <c r="S4" s="50"/>
+      <c r="T4" s="46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B5" s="50"/>
-      <c r="C5" s="46" t="s">
-        <v>130</v>
+      <c r="C5" s="55" t="s">
+        <v>114</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="46" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="16" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="L5" s="50"/>
       <c r="M5" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>148</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N5" s="21"/>
       <c r="O5" s="50"/>
       <c r="P5" s="46" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="Q5" s="50"/>
       <c r="R5" s="46">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="S5" s="50"/>
       <c r="T5" s="46" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="47" customFormat="1" ht="57.6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B6" s="50"/>
+      <c r="C6" s="55" t="s">
+        <v>182</v>
+      </c>
       <c r="D6" s="50"/>
       <c r="E6" s="46" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="16" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>34</v>
+        <v>176</v>
       </c>
       <c r="L6" s="50"/>
       <c r="M6" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="21" t="s">
-        <v>151</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="N6" s="21"/>
       <c r="O6" s="50"/>
       <c r="P6" s="46" t="s">
-        <v>68</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="50"/>
-      <c r="R6" s="46">
-        <v>99</v>
-      </c>
       <c r="S6" s="50"/>
       <c r="T6" s="46" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" s="47" customFormat="1" ht="86.4">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B7" s="50"/>
+      <c r="C7" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="D7" s="50"/>
+      <c r="E7" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="F7" s="50"/>
       <c r="G7" s="16" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="L7" s="50"/>
       <c r="M7" s="48" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>149</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="N7" s="21"/>
       <c r="O7" s="50"/>
-      <c r="P7" s="46" t="s">
-        <v>12</v>
-      </c>
       <c r="Q7" s="50"/>
       <c r="S7" s="50"/>
-      <c r="T7" s="46" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" s="47" customFormat="1" ht="43.2">
+    </row>
+    <row r="8" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B8" s="50"/>
+      <c r="C8" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="D8" s="50"/>
+      <c r="E8" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="F8" s="50"/>
-      <c r="G8" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="H8" s="50"/>
       <c r="I8" s="16" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>79</v>
+        <v>162</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>30</v>
+        <v>176</v>
       </c>
       <c r="L8" s="50"/>
       <c r="M8" s="48" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="21" t="s">
-        <v>150</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="N8" s="21"/>
       <c r="O8" s="50"/>
       <c r="Q8" s="50"/>
       <c r="S8" s="50"/>
     </row>
-    <row r="9" spans="1:20" s="47" customFormat="1" ht="158.4">
-      <c r="B9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="H9" s="50"/>
+    <row r="9" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="H9" s="49"/>
       <c r="I9" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L9" s="50"/>
+        <v>176</v>
+      </c>
+      <c r="L9" s="49"/>
       <c r="M9" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="O9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="S9" s="50"/>
-    </row>
-    <row r="10" spans="1:20" s="45" customFormat="1" ht="115.2">
+        <v>28</v>
+      </c>
+      <c r="N9" s="21"/>
+      <c r="O9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="47"/>
+      <c r="S9" s="49"/>
+    </row>
+    <row r="10" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>184</v>
+      </c>
       <c r="B10" s="49"/>
+      <c r="C10" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="D10" s="49"/>
+      <c r="E10" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="F10" s="49"/>
       <c r="H10" s="49"/>
       <c r="I10" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>35</v>
+        <v>176</v>
       </c>
       <c r="L10" s="49"/>
-      <c r="M10" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="N10" s="21" t="s">
-        <v>152</v>
-      </c>
+      <c r="M10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="24"/>
       <c r="O10" s="49"/>
       <c r="Q10" s="49"/>
-      <c r="R10" s="47"/>
       <c r="S10" s="49"/>
     </row>
-    <row r="11" spans="1:20" s="45" customFormat="1" ht="100.8">
+    <row r="11" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>185</v>
+      </c>
       <c r="B11" s="49"/>
+      <c r="C11" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" s="49"/>
+      <c r="E11" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="F11" s="49"/>
       <c r="H11" s="49"/>
       <c r="I11" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="L11" s="49"/>
-      <c r="M11" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>162</v>
-      </c>
       <c r="O11" s="49"/>
       <c r="Q11" s="49"/>
       <c r="S11" s="49"/>
     </row>
-    <row r="12" spans="1:20" s="45" customFormat="1">
+    <row r="12" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="B12" s="49"/>
+      <c r="C12" s="55" t="s">
+        <v>114</v>
+      </c>
       <c r="D12" s="49"/>
+      <c r="E12" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="F12" s="49"/>
       <c r="H12" s="49"/>
       <c r="I12" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="L12" s="49"/>
       <c r="O12" s="49"/>
       <c r="Q12" s="49"/>
       <c r="S12" s="49"/>
     </row>
-    <row r="13" spans="1:20" s="45" customFormat="1">
-      <c r="B13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="H13" s="49"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="46" t="s">
+        <v>119</v>
+      </c>
       <c r="I13" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="S13" s="49"/>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="R14" s="45"/>
+        <v>146</v>
+      </c>
+      <c r="J13" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="K13" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="R13" s="45"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J14" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="K14" s="48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="K15" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="K16" s="48" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="J17" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="K17" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J18" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E21" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="M3:O17">
@@ -4220,13 +4577,32 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8267DCC-B72C-475F-A479-7C0462ACEBAF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8267DCC-B72C-475F-A479-7C0462ACEBAF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08EF68F-7F7A-4AB1-A257-30A49A75311D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08EF68F-7F7A-4AB1-A257-30A49A75311D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF435911-96A8-413D-99F3-7D7B22C7D0C6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF435911-96A8-413D-99F3-7D7B22C7D0C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/trunk/_svn-document/Requirements_Traceability_Matrix_13745/rtm_TMP_AuctionOnline.xlsx
+++ b/trunk/_svn-document/Requirements_Traceability_Matrix_13745/rtm_TMP_AuctionOnline.xlsx
@@ -13,13 +13,13 @@
     <sheet name="Data" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Needs!$A$3:$H$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Needs!$A$3:$H$99</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Requirements!$A$3:$J$28</definedName>
     <definedName name="AddressedBy">Data!$P$3:$P$6</definedName>
     <definedName name="BusinessArea">Data!$A$3:$A$7</definedName>
     <definedName name="BusinessPriority">Data!$C$3:$C$4</definedName>
     <definedName name="ImplementationPriority">Data!$R$3:$R$5</definedName>
-    <definedName name="NeedID">Needs!$A$4:$A$29</definedName>
+    <definedName name="NeedID">Needs!$A$4:$A$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Needs!$3:$3</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Requirements!$3:$3</definedName>
     <definedName name="ReqTypeAbbreviations">Data!#REF!</definedName>
@@ -491,7 +491,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="311">
   <si>
     <t>Notes</t>
   </si>
@@ -795,6 +795,469 @@
     <t>002</t>
   </si>
   <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>Business Area</t>
+  </si>
+  <si>
+    <t>Business Priority</t>
+  </si>
+  <si>
+    <t>Timeframe</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Subject Area</t>
+  </si>
+  <si>
+    <t>Testability</t>
+  </si>
+  <si>
+    <t>Use Case(s)</t>
+  </si>
+  <si>
+    <t>Business Areas</t>
+  </si>
+  <si>
+    <t>BA_01</t>
+  </si>
+  <si>
+    <t>BA_02</t>
+  </si>
+  <si>
+    <t>BA_03</t>
+  </si>
+  <si>
+    <t>BA_04</t>
+  </si>
+  <si>
+    <t>BA_05</t>
+  </si>
+  <si>
+    <t>BA_06</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>SA_01</t>
+  </si>
+  <si>
+    <t>Subject Areas</t>
+  </si>
+  <si>
+    <t>SA_02</t>
+  </si>
+  <si>
+    <t>SA_03</t>
+  </si>
+  <si>
+    <t>SA_04</t>
+  </si>
+  <si>
+    <t>SA_05</t>
+  </si>
+  <si>
+    <t>SA_06</t>
+  </si>
+  <si>
+    <t>Implementa-
+tion Priority</t>
+  </si>
+  <si>
+    <t>Business Priorities</t>
+  </si>
+  <si>
+    <t>Statuses</t>
+  </si>
+  <si>
+    <t>Implementation Priorities</t>
+  </si>
+  <si>
+    <t>Test Plan</t>
+  </si>
+  <si>
+    <t>Demonstration</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Inspection</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Testability Methods</t>
+  </si>
+  <si>
+    <t>Source of Need Statement</t>
+  </si>
+  <si>
+    <t>Need(s)</t>
+  </si>
+  <si>
+    <t>Người sử dụng đăng ký để trở thành member của hệ thống</t>
+  </si>
+  <si>
+    <t>Member sau khi cuộc đấu giá kết thúc nhận được email thống báo kết quả đấu giá</t>
+  </si>
+  <si>
+    <t>Seller quyết định sẽ bán sản phẩm cho người nào, dựa vào danh sách users đã tham gia cuộc đấu giá</t>
+  </si>
+  <si>
+    <t>Trong quá trình đang đấu giá, member đang tham gia có thể thấy được danh sách người tham gia, thông tin sản phẩm, số tiền (bid) hiện tại</t>
+  </si>
+  <si>
+    <t>Member của hệ thống tham gia đấu giá một sản phẩm, đặt giá cho sản phẩm</t>
+  </si>
+  <si>
+    <t>UC-011</t>
+  </si>
+  <si>
+    <t>UC-013</t>
+  </si>
+  <si>
+    <t>UC-014</t>
+  </si>
+  <si>
+    <t>UC-015</t>
+  </si>
+  <si>
+    <t>UC-016</t>
+  </si>
+  <si>
+    <t>UC-017</t>
+  </si>
+  <si>
+    <t>UC-018</t>
+  </si>
+  <si>
+    <t>UC-019</t>
+  </si>
+  <si>
+    <t>UC-020</t>
+  </si>
+  <si>
+    <t>UC-021</t>
+  </si>
+  <si>
+    <t>UC-022</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Create account</t>
+  </si>
+  <si>
+    <t>Get back password</t>
+  </si>
+  <si>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>View product detail</t>
+  </si>
+  <si>
+    <t>View products</t>
+  </si>
+  <si>
+    <t>Embed product</t>
+  </si>
+  <si>
+    <t>Feed Back</t>
+  </si>
+  <si>
+    <t>Add new product</t>
+  </si>
+  <si>
+    <t>Places bid</t>
+  </si>
+  <si>
+    <t>View own auction history</t>
+  </si>
+  <si>
+    <t>User Manager</t>
+  </si>
+  <si>
+    <t>Manage Genre</t>
+  </si>
+  <si>
+    <t>View trading history</t>
+  </si>
+  <si>
+    <t>Configure system</t>
+  </si>
+  <si>
+    <t>Create a shop</t>
+  </si>
+  <si>
+    <t>View shop</t>
+  </si>
+  <si>
+    <t>Manage shop</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Registered User</t>
+  </si>
+  <si>
+    <t>Registered User buyer</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>BA_07</t>
+  </si>
+  <si>
+    <t>BA_08</t>
+  </si>
+  <si>
+    <t>BA_09</t>
+  </si>
+  <si>
+    <t>BA_10</t>
+  </si>
+  <si>
+    <t>BA_11</t>
+  </si>
+  <si>
+    <t>BA_12</t>
+  </si>
+  <si>
+    <t>BA_13</t>
+  </si>
+  <si>
+    <t>BA_14</t>
+  </si>
+  <si>
+    <t>BA_15</t>
+  </si>
+  <si>
+    <t>BA_16</t>
+  </si>
+  <si>
+    <t>BA_17</t>
+  </si>
+  <si>
+    <t>BA_18</t>
+  </si>
+  <si>
+    <t>BA_19</t>
+  </si>
+  <si>
+    <t>BA_20</t>
+  </si>
+  <si>
+    <t>BA_21</t>
+  </si>
+  <si>
+    <t>Buyer xem danh sách các sản phẩm đã tham gia đấu giá</t>
+  </si>
+  <si>
+    <t>Buyer thấy được thông tin đặt giá của sản mỗi sản phẩm, ai đặt, lúc nào</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm đang đấu giá “hot”</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm sắp kết thúc đấu giá</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm sản phẩm tương tự.</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm cùng seller</t>
+  </si>
+  <si>
+    <t>Hiển thị trang các sản phẩm chuẩn bị đưa lên sàn</t>
+  </si>
+  <si>
+    <t>Hiển thị sản phẩm đã xem qua</t>
+  </si>
+  <si>
+    <t>Seller đăng sản phẩm vào hệ thống</t>
+  </si>
+  <si>
+    <t>Thấy được kết quả đăng sản phẩm</t>
+  </si>
+  <si>
+    <t>Xem thấy danh sách các sản phẩm chưa đấu giá</t>
+  </si>
+  <si>
+    <t>Xem thấy danh sách các sản phẩm đang đấu giá</t>
+  </si>
+  <si>
+    <t>Xem thấy danh sách các sản phẩm đã đấu giá xong</t>
+  </si>
+  <si>
+    <t>Xem thấy nội dung chi tiết một sản phẩm</t>
+  </si>
+  <si>
+    <t>Manage own product</t>
+  </si>
+  <si>
+    <t>Thấy được màn hình đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng nhập vào hệ thống, lưu session</t>
+  </si>
+  <si>
+    <t>Đăng xuất khỏi hệ thống, xóa session</t>
+  </si>
+  <si>
+    <t>Hiển thị trang chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>Hiển thị trang thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Cập nhật thay đổi thông tin cá nhân</t>
+  </si>
+  <si>
+    <t>Change profile</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách user sẽ được đánh giá</t>
+  </si>
+  <si>
+    <t>Đánh giá điểm feedback cho một user</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện quản lý thể loại</t>
+  </si>
+  <si>
+    <t>Update thành công thể loại</t>
+  </si>
+  <si>
+    <t>Thêm mới một thể loại</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>Xóa một thể loại</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện chỉnh sửa thông tin sản phẩm chưa đấu giá</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện chỉnh sửa thông tin sản phẩm đang đấu giá</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện chỉnh sửa thông tin sản phẩm đấu giá xong</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">DEP </t>
     </r>
@@ -816,48 +1279,8 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> — </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>SYSTEM OR APPLICATION NAME</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>PROJECT NAME</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> — Needs Assessment — </t>
+      <t xml:space="preserve"> — AUCTION ONLINE
+THESIS— Needs Assessment — </t>
     </r>
     <r>
       <rPr>
@@ -871,461 +1294,244 @@
     </r>
   </si>
   <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>004</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
-  </si>
-  <si>
-    <t>014</t>
-  </si>
-  <si>
-    <t>015</t>
-  </si>
-  <si>
-    <t>016</t>
-  </si>
-  <si>
-    <t>017</t>
-  </si>
-  <si>
-    <t>018</t>
-  </si>
-  <si>
-    <t>019</t>
-  </si>
-  <si>
-    <t>020</t>
-  </si>
-  <si>
-    <t>021</t>
-  </si>
-  <si>
-    <t>022</t>
-  </si>
-  <si>
-    <t>023</t>
-  </si>
-  <si>
-    <t>024</t>
-  </si>
-  <si>
-    <t>025</t>
-  </si>
-  <si>
-    <t>Business Area</t>
-  </si>
-  <si>
-    <t>Business Priority</t>
-  </si>
-  <si>
-    <t>Timeframe</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Subject Area</t>
-  </si>
-  <si>
-    <t>Testability</t>
-  </si>
-  <si>
-    <t>Use Case(s)</t>
-  </si>
-  <si>
-    <t>Business Areas</t>
-  </si>
-  <si>
-    <t>BA_01</t>
-  </si>
-  <si>
-    <t>BA_02</t>
-  </si>
-  <si>
-    <t>BA_03</t>
-  </si>
-  <si>
-    <t>BA_04</t>
-  </si>
-  <si>
-    <t>BA_05</t>
-  </si>
-  <si>
-    <t>BA_06</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Proposed</t>
-  </si>
-  <si>
-    <t>Under Review</t>
-  </si>
-  <si>
-    <t>Accepted</t>
-  </si>
-  <si>
-    <t>Rejected</t>
-  </si>
-  <si>
-    <t>Use Cases</t>
-  </si>
-  <si>
-    <t>SA_01</t>
-  </si>
-  <si>
-    <t>Subject Areas</t>
-  </si>
-  <si>
-    <t>SA_02</t>
-  </si>
-  <si>
-    <t>SA_03</t>
-  </si>
-  <si>
-    <t>SA_04</t>
-  </si>
-  <si>
-    <t>SA_05</t>
-  </si>
-  <si>
-    <t>SA_06</t>
-  </si>
-  <si>
-    <t>Implementa-
-tion Priority</t>
-  </si>
-  <si>
-    <t>Business Priorities</t>
-  </si>
-  <si>
-    <t>Statuses</t>
-  </si>
-  <si>
-    <t>Implementation Priorities</t>
-  </si>
-  <si>
-    <t>Test Plan</t>
-  </si>
-  <si>
-    <t>Demonstration</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>Inspection</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Testability Methods</t>
-  </si>
-  <si>
-    <t>Source of Need Statement</t>
-  </si>
-  <si>
-    <t>Need(s)</t>
-  </si>
-  <si>
-    <t>Người sử dụng đăng ký để trở thành member của hệ thống</t>
-  </si>
-  <si>
-    <t>Member sau khi cuộc đấu giá kết thúc nhận được email thống báo kết quả đấu giá</t>
-  </si>
-  <si>
-    <t>Seller quyết định sẽ bán sản phẩm cho người nào, dựa vào danh sách users đã tham gia cuộc đấu giá</t>
-  </si>
-  <si>
-    <t>Trong quá trình đang đấu giá, member đang tham gia có thể thấy được danh sách người tham gia, thông tin sản phẩm, số tiền (bid) hiện tại</t>
-  </si>
-  <si>
-    <t>Member của hệ thống tham gia đấu giá một sản phẩm, đặt giá cho sản phẩm</t>
-  </si>
-  <si>
-    <t>UC-011</t>
-  </si>
-  <si>
-    <t>UC-013</t>
-  </si>
-  <si>
-    <t>UC-014</t>
-  </si>
-  <si>
-    <t>UC-015</t>
-  </si>
-  <si>
-    <t>UC-016</t>
-  </si>
-  <si>
-    <t>UC-017</t>
-  </si>
-  <si>
-    <t>UC-018</t>
-  </si>
-  <si>
-    <t>UC-019</t>
-  </si>
-  <si>
-    <t>UC-020</t>
-  </si>
-  <si>
-    <t>UC-021</t>
-  </si>
-  <si>
-    <t>UC-022</t>
-  </si>
-  <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Logout</t>
-  </si>
-  <si>
-    <t>Create account</t>
-  </si>
-  <si>
-    <t>Get back password</t>
-  </si>
-  <si>
-    <t>Search product</t>
-  </si>
-  <si>
-    <t>View product detail</t>
-  </si>
-  <si>
-    <t>View products</t>
-  </si>
-  <si>
-    <t>Embed product</t>
-  </si>
-  <si>
-    <t>Feed Back</t>
-  </si>
-  <si>
-    <t>Add new product</t>
-  </si>
-  <si>
-    <t>Places bid</t>
-  </si>
-  <si>
-    <t>View own auction history</t>
-  </si>
-  <si>
-    <t>User Manager</t>
-  </si>
-  <si>
-    <t>Manage Genre</t>
-  </si>
-  <si>
-    <t>View trading history</t>
-  </si>
-  <si>
-    <t>Configure system</t>
-  </si>
-  <si>
-    <t>Create a shop</t>
-  </si>
-  <si>
-    <t>View shop</t>
-  </si>
-  <si>
-    <t>Manage shop</t>
-  </si>
-  <si>
-    <t>User</t>
-  </si>
-  <si>
-    <t>Registered User</t>
-  </si>
-  <si>
-    <t>Registered User buyer</t>
-  </si>
-  <si>
-    <t>Buyer</t>
-  </si>
-  <si>
-    <t>Seller</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <t>BA_07</t>
-  </si>
-  <si>
-    <t>BA_08</t>
-  </si>
-  <si>
-    <t>BA_09</t>
-  </si>
-  <si>
-    <t>BA_10</t>
-  </si>
-  <si>
-    <t>BA_11</t>
-  </si>
-  <si>
-    <t>BA_12</t>
-  </si>
-  <si>
-    <t>BA_13</t>
-  </si>
-  <si>
-    <t>BA_14</t>
-  </si>
-  <si>
-    <t>BA_15</t>
-  </si>
-  <si>
-    <t>BA_16</t>
-  </si>
-  <si>
-    <t>BA_17</t>
-  </si>
-  <si>
-    <t>BA_18</t>
-  </si>
-  <si>
-    <t>BA_19</t>
-  </si>
-  <si>
-    <t>BA_20</t>
-  </si>
-  <si>
-    <t>BA_21</t>
-  </si>
-  <si>
-    <t>Buyer xem danh sách các sản phẩm đã tham gia đấu giá</t>
-  </si>
-  <si>
-    <t>Buyer thấy được thông tin đặt giá của sản mỗi sản phẩm, ai đặt, lúc nào</t>
-  </si>
-  <si>
-    <t>Hiển thị trang các sản phẩm đang đấu giá “hot”</t>
-  </si>
-  <si>
-    <t>Hiển thị trang các sản phẩm sắp kết thúc đấu giá</t>
-  </si>
-  <si>
-    <t>Hiển thị trang các sản phẩm sản phẩm tương tự.</t>
-  </si>
-  <si>
-    <t>Hiển thị trang các sản phẩm cùng seller</t>
-  </si>
-  <si>
-    <t>Hiển thị trang các sản phẩm chuẩn bị đưa lên sàn</t>
-  </si>
-  <si>
-    <t>Hiển thị sản phẩm đã xem qua</t>
-  </si>
-  <si>
-    <t>Seller đăng sản phẩm vào hệ thống</t>
-  </si>
-  <si>
-    <t>Thấy được kết quả đăng sản phẩm</t>
-  </si>
-  <si>
-    <t>Xem thấy danh sách các sản phẩm chưa đấu giá</t>
-  </si>
-  <si>
-    <t>Xem thấy danh sách các sản phẩm đang đấu giá</t>
-  </si>
-  <si>
-    <t>Xem thấy danh sách các sản phẩm đã đấu giá xong</t>
-  </si>
-  <si>
-    <t>Xem thấy nội dung chi tiết một sản phẩm</t>
-  </si>
-  <si>
-    <t>Manage own product</t>
-  </si>
-  <si>
-    <t>Thấy được màn hình đăng nhập</t>
-  </si>
-  <si>
-    <t>Đăng nhập vào hệ thống, lưu session</t>
-  </si>
-  <si>
-    <t>Đăng xuất khỏi hệ thống, xóa session</t>
-  </si>
-  <si>
-    <t>Hiển thị trang chi tiết sản phẩm</t>
-  </si>
-  <si>
-    <t>Hiển thị trang thay đổi thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>Cập nhật thay đổi thông tin cá nhân</t>
-  </si>
-  <si>
-    <t>Change profile</t>
-  </si>
-  <si>
-    <t>Hiển thị danh sách user sẽ được đánh giá</t>
-  </si>
-  <si>
-    <t>Đánh giá điểm feedback cho một user</t>
-  </si>
-  <si>
-    <t>Hiển thị giao diện quản lý thể loại</t>
-  </si>
-  <si>
-    <t>Update thành công thể loại</t>
-  </si>
-  <si>
-    <t>Thêm mới một thể loại</t>
-  </si>
-  <si>
-    <t>026</t>
-  </si>
-  <si>
-    <t>027</t>
-  </si>
-  <si>
-    <t>028</t>
-  </si>
-  <si>
-    <t>029</t>
+    <t>Xem thấy danh sách người tham gia đấu giá</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các người chơi sẽ được feedback</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách buyer muốn mua ngay sản phẩm</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>035</t>
+  </si>
+  <si>
+    <t>036</t>
+  </si>
+  <si>
+    <t>037</t>
+  </si>
+  <si>
+    <t>038</t>
+  </si>
+  <si>
+    <t>039</t>
+  </si>
+  <si>
+    <t>040</t>
+  </si>
+  <si>
+    <t>041</t>
+  </si>
+  <si>
+    <t>042</t>
+  </si>
+  <si>
+    <t>043</t>
+  </si>
+  <si>
+    <t>044</t>
+  </si>
+  <si>
+    <t>045</t>
+  </si>
+  <si>
+    <t>046</t>
+  </si>
+  <si>
+    <t>047</t>
+  </si>
+  <si>
+    <t>048</t>
+  </si>
+  <si>
+    <t>049</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>051</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>053</t>
+  </si>
+  <si>
+    <t>054</t>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>059</t>
+  </si>
+  <si>
+    <t>060</t>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>062</t>
+  </si>
+  <si>
+    <t>063</t>
+  </si>
+  <si>
+    <t>064</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>081</t>
+  </si>
+  <si>
+    <t>082</t>
+  </si>
+  <si>
+    <t>083</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách shop rỗng, tức chưa có shop nào</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách shop đã tạo</t>
+  </si>
+  <si>
+    <t>Hiển thị basic info của shop</t>
+  </si>
+  <si>
+    <t>Hiển thị more info của shop</t>
+  </si>
+  <si>
+    <t>Hiển thị màn hình chỉnh sửa thông tin shop</t>
+  </si>
+  <si>
+    <t>Cập nhật thông tin shop</t>
+  </si>
+  <si>
+    <t>Gửi email nhắc nhở 30 ngày</t>
+  </si>
+  <si>
+    <t>Hủy shop tự động 365 ngày</t>
+  </si>
+  <si>
+    <t>"Mua lượt up"</t>
+  </si>
+  <si>
+    <t>Hiển thị hóa đơn khi mua "lượt up"</t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện thêm mới shop</t>
+  </si>
+  <si>
+    <t>Thực hiện thêm mới một shop</t>
+  </si>
+  <si>
+    <t>Hiển thị hóa đơn sau khi mở shop</t>
+  </si>
+  <si>
+    <t>Xử lý các lỗi khi nhập sai</t>
+  </si>
+  <si>
+    <t>Thực hiện thanh toán khi mở shop</t>
+  </si>
+  <si>
+    <t>Hiện giao diện mua "lượt up"</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách sản phẩm đã tham gia đấu giá</t>
+  </si>
+  <si>
+    <t>Xem chi tiết sản phẩm đã chọn</t>
+  </si>
+  <si>
+    <t>Hiển trang shop chứa sản phẩm đã đấu giá</t>
+  </si>
+  <si>
+    <t>Ba_14</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách các chức năng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị giao diện thay đổi email </t>
+  </si>
+  <si>
+    <t>Hiển thị giao diện thay đổi tham số thời gian</t>
+  </si>
+  <si>
+    <t>Cập nhật được thông tin thay đổi</t>
   </si>
 </sst>
 </file>
@@ -1431,7 +1637,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1453,6 +1659,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1523,7 +1735,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1694,6 +1906,14 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2267,14 +2487,15 @@
     <tabColor rgb="FF00B0F0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="900" topLeftCell="A19" activePane="bottomLeft"/>
+      <selection activeCell="A3" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="50.140625" style="3" customWidth="1"/>
@@ -2287,9 +2508,9 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>76</v>
+        <v>230</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2299,7 +2520,7 @@
       <c r="G1" s="17"/>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2317,315 +2538,309 @@
         <v>73</v>
       </c>
       <c r="C3" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="38" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="42" t="s">
         <v>103</v>
-      </c>
-      <c r="G3" s="42" t="s">
-        <v>104</v>
       </c>
       <c r="H3" s="38" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F4" s="21"/>
       <c r="G4" s="27"/>
       <c r="H4" s="21"/>
     </row>
-    <row r="5" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="36" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>117</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F5" s="24"/>
       <c r="G5" s="27" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>118</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="F6" s="24"/>
       <c r="G6" s="27"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>216</v>
+        <v>137</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>119</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="F7" s="24"/>
       <c r="G7" s="26"/>
       <c r="H7" s="24"/>
     </row>
-    <row r="8" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="36" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="24"/>
       <c r="G8" s="26"/>
       <c r="H8" s="24"/>
     </row>
-    <row r="9" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="G9" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="24"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>141</v>
+        <v>200</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="26"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21" t="s">
         <v>115</v>
       </c>
       <c r="F11" s="24"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="24"/>
-    </row>
-    <row r="12" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="36" t="s">
+        <v>95</v>
+      </c>
       <c r="B12" s="37" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" s="24"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="24"/>
-    </row>
-    <row r="13" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G12" s="27"/>
+      <c r="H12" s="21"/>
+    </row>
+    <row r="13" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F13" s="24"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="24"/>
-    </row>
-    <row r="14" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G13" s="27"/>
+      <c r="H13" s="21"/>
+    </row>
+    <row r="14" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21" t="s">
         <v>115</v>
       </c>
       <c r="F14" s="24"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="24"/>
-    </row>
-    <row r="15" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G14" s="27"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="26"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="26"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="24"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="24"/>
-    </row>
-    <row r="18" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="G17" s="27"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36" t="s">
-        <v>88</v>
+        <v>221</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="24"/>
+        <v>182</v>
+      </c>
+      <c r="D18" s="21"/>
       <c r="E18" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F18" s="24"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="24"/>
-    </row>
-    <row r="19" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G18" s="27"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D19" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="D19" s="21"/>
       <c r="E19" s="21" t="s">
         <v>114</v>
       </c>
@@ -2633,17 +2848,15 @@
       <c r="G19" s="26"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>90</v>
-      </c>
+    <row r="20" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
       <c r="B20" s="37" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="24"/>
+        <v>183</v>
+      </c>
+      <c r="D20" s="21"/>
       <c r="E20" s="21" t="s">
         <v>115</v>
       </c>
@@ -2651,51 +2864,51 @@
       <c r="G20" s="26"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D21" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="D21" s="24"/>
       <c r="E21" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F21" s="24"/>
-      <c r="G21" s="27"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>188</v>
-      </c>
-      <c r="D22" s="21"/>
+        <v>184</v>
+      </c>
+      <c r="D22" s="24"/>
       <c r="E22" s="21" t="s">
         <v>114</v>
       </c>
       <c r="F22" s="24"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="21"/>
-    </row>
-    <row r="23" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="G22" s="26"/>
+      <c r="H22" s="24"/>
+    </row>
+    <row r="23" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21" t="s">
@@ -2703,254 +2916,1158 @@
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="27"/>
-      <c r="H23" s="21"/>
-    </row>
-    <row r="24" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F24" s="24"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="24"/>
-    </row>
-    <row r="25" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
-        <v>95</v>
-      </c>
+      <c r="G24" s="27"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
       <c r="B25" s="37" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="27"/>
       <c r="H25" s="21"/>
     </row>
-    <row r="26" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
-        <v>96</v>
-      </c>
+    <row r="26" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
       <c r="B26" s="37" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F26" s="24"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="21"/>
-    </row>
-    <row r="27" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>97</v>
-      </c>
+      <c r="G26" s="26"/>
+      <c r="H26" s="24"/>
+    </row>
+    <row r="27" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
       <c r="B27" s="37" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="27"/>
       <c r="H27" s="21"/>
     </row>
-    <row r="28" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>98</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>205</v>
+    <row r="28" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="60" t="s">
+        <v>229</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="27"/>
       <c r="H28" s="21"/>
     </row>
-    <row r="29" spans="1:8" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="36" t="s">
-        <v>99</v>
-      </c>
+    <row r="29" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
       <c r="B29" s="37" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="27"/>
       <c r="H29" s="21"/>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>225</v>
-      </c>
+    <row r="30" spans="1:8" s="14" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36"/>
       <c r="B30" s="37" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C30" s="22" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="27"/>
       <c r="H30" s="21"/>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>226</v>
+        <v>82</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>222</v>
+        <v>141</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F31" s="24"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="21"/>
-    </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G31" s="26"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>227</v>
+        <v>83</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>223</v>
+        <v>138</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
         <v>115</v>
       </c>
       <c r="F32" s="24"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="21"/>
-    </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="G32" s="26"/>
+      <c r="H32" s="24"/>
+    </row>
+    <row r="33" spans="1:8" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>224</v>
+        <v>139</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D33" s="21"/>
       <c r="E33" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F33" s="24"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="21"/>
-    </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B34" s="37"/>
-      <c r="C34" s="22"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="24"/>
+    </row>
+    <row r="34" spans="1:8" s="14" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>185</v>
+      </c>
       <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
+      <c r="E34" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F34" s="24"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="21"/>
-    </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="37"/>
-      <c r="C35" s="22"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="24"/>
+    </row>
+    <row r="35" spans="1:8" s="14" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>186</v>
+      </c>
       <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
+      <c r="E35" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F35" s="24"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="21"/>
-    </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B36" s="37"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="24"/>
+    </row>
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F36" s="24"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="21"/>
-    </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B37" s="37"/>
-      <c r="C37" s="22"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="24"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>306</v>
+      </c>
       <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
+      <c r="E37" s="21" t="s">
+        <v>114</v>
+      </c>
       <c r="F37" s="24"/>
       <c r="G37" s="27"/>
       <c r="H37" s="21"/>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B38" s="37"/>
-      <c r="C38" s="22"/>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>306</v>
+      </c>
       <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
+      <c r="E38" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F38" s="24"/>
       <c r="G38" s="27"/>
       <c r="H38" s="21"/>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
-      <c r="C39" s="22"/>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>306</v>
+      </c>
       <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
+      <c r="E39" s="21" t="s">
+        <v>113</v>
+      </c>
       <c r="F39" s="24"/>
       <c r="G39" s="27"/>
       <c r="H39" s="21"/>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="B40" s="37"/>
-      <c r="C40" s="22"/>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>222</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>188</v>
+      </c>
       <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
+      <c r="E40" s="21" t="s">
+        <v>115</v>
+      </c>
       <c r="F40" s="24"/>
       <c r="G40" s="27"/>
       <c r="H40" s="21"/>
     </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="27"/>
+      <c r="H41" s="21"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="21"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="21"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>234</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F44" s="24"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="21"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F46" s="24"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="21"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F47" s="24"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="21"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F48" s="24"/>
+      <c r="G48" s="27"/>
+      <c r="H48" s="21"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="21"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="36" t="s">
+        <v>240</v>
+      </c>
+      <c r="B50" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="24"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="21"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B51" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F51" s="24"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="21"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F52" s="24"/>
+      <c r="G52" s="27"/>
+      <c r="H52" s="21"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>291</v>
+      </c>
+      <c r="C53" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="24"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="21"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B54" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="27"/>
+      <c r="H54" s="21"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36" t="s">
+        <v>245</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="27"/>
+      <c r="H55" s="21"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="24"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="21"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="24"/>
+      <c r="G57" s="27"/>
+      <c r="H57" s="21"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F58" s="24"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="21"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B59" s="60" t="s">
+        <v>302</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="24"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="21"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F60" s="24"/>
+      <c r="G60" s="27"/>
+      <c r="H60" s="21"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="B61" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="21"/>
+      <c r="E61" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F61" s="24"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="21"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D62" s="21"/>
+      <c r="E62" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="24"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="21"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="D63" s="21"/>
+      <c r="E63" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="24"/>
+      <c r="G63" s="27"/>
+      <c r="H63" s="21"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
+        <v>251</v>
+      </c>
+      <c r="B64" s="37"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="21"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="27"/>
+      <c r="H64" s="21"/>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36" t="s">
+        <v>252</v>
+      </c>
+      <c r="B65" s="37"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="21"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="27"/>
+      <c r="H65" s="21"/>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="21"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="21"/>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="B67" s="37"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="27"/>
+      <c r="H67" s="21"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B68" s="37"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="27"/>
+      <c r="H68" s="21"/>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B69" s="37"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="27"/>
+      <c r="H69" s="21"/>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="27"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="21"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="27"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="37"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="21"/>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="21"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="21"/>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B75" s="37"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="21"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="21"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B76" s="37"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="27"/>
+      <c r="H76" s="21"/>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="B77" s="37"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="21"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="27"/>
+      <c r="H77" s="21"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B78" s="37"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="27"/>
+      <c r="H78" s="21"/>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B79" s="37"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="27"/>
+      <c r="H79" s="21"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="27"/>
+      <c r="H80" s="21"/>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="21"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B82" s="37"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="27"/>
+      <c r="H82" s="21"/>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="36" t="s">
+        <v>270</v>
+      </c>
+      <c r="B83" s="37"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="21"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B84" s="37"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="21"/>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
+        <v>272</v>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="21"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="27"/>
+      <c r="H86" s="21"/>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="21"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="27"/>
+      <c r="H87" s="21"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="B88" s="37"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="27"/>
+      <c r="H88" s="21"/>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" s="37"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="21"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" s="37"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="21"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="27"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="21"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="27"/>
+      <c r="H91" s="21"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>279</v>
+      </c>
+      <c r="B92" s="37"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="27"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="B93" s="37"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="27"/>
+      <c r="H93" s="21"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="27"/>
+      <c r="H94" s="21"/>
+    </row>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="B95" s="37"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="27"/>
+      <c r="H95" s="21"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="36" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="37"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="27"/>
+      <c r="H96" s="21"/>
+    </row>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B97" s="37"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="21"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B98" s="37"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="27"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="36" t="s">
+        <v>286</v>
+      </c>
+      <c r="B99" s="37"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="21"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:H29"/>
-  <conditionalFormatting sqref="F41:G1048576 F1:G2">
+  <autoFilter ref="A3:H99">
+    <sortState ref="A4:H99">
+      <sortCondition ref="C54"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A4:H99">
+    <sortCondition ref="C4"/>
+  </sortState>
+  <conditionalFormatting sqref="F100:G1048576 F1:G2">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>3</formula>
     </cfRule>
@@ -2961,20 +4078,20 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="1039" yWindow="192" count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="As needed, includes any additional clarifying notes." sqref="H4:H40"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Subject Area" prompt="OPTIONAL field for indicating a subject (topic) area that this need addresses." sqref="G4:G40">
+  <dataValidations xWindow="885" yWindow="411" count="7">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Notes" prompt="As needed, includes any additional clarifying notes." sqref="H4:H99"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Subject Area" prompt="OPTIONAL field for indicating a subject (topic) area that this need addresses." sqref="G4:G99">
       <formula1>SubjectArea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Records how far the need is towards being accepted. Select from following:_x000a__x000a_ * Proposed_x000a_ * Under Review_x000a_ * Accepted_x000a_ * Rejected" sqref="F4:F40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Status" prompt="Records how far the need is towards being accepted. Select from following:_x000a__x000a_ * Proposed_x000a_ * Under Review_x000a_ * Accepted_x000a_ * Rejected" sqref="F4:F99">
       <formula1>Status</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Source of Need Statement" prompt="Identifes where (or from whom) this statement originated. Reference the meeting/session where the statement was identified." sqref="D4:D40"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID" prompt="A unique three-digit number. Prefix with an apostrophe (') to keep leading zeroes in Excel. To add further detail to an existing numbered need, use an outline numbering format, as follows:_x000a_001_x000a_001.02_x000a_001.05.03_x000a_002" sqref="A4:A33"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Business Priority" prompt="Identifies how important this need is to the business._x000a__x000a_ * High: Critical need for business; must be addressed by solution._x000a_ * Medium: Very important to business; should be addressed by solution._x000a_ * Low: A nice-to-have feature." sqref="E4:E40">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Source of Need Statement" prompt="Identifes where (or from whom) this statement originated. Reference the meeting/session where the statement was identified." sqref="D4:D99"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ID" prompt="A unique three-digit number. Prefix with an apostrophe (') to keep leading zeroes in Excel. To add further detail to an existing numbered need, use an outline numbering format, as follows:_x000a_001_x000a_001.02_x000a_001.05.03_x000a_002" sqref="A4:A99"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Business Priority" prompt="Identifies how important this need is to the business._x000a__x000a_ * High: Critical need for business; must be addressed by solution._x000a_ * Medium: Very important to business; should be addressed by solution._x000a_ * Low: A nice-to-have feature." sqref="E4:E99">
       <formula1>BusinessPriority</formula1>
     </dataValidation>
-    <dataValidation errorStyle="warning" showInputMessage="1" promptTitle="Statement of Need" prompt="Statement of WHAT a business or user needs, independent of HOW it is delivered. Can be a clear statement of the following:_x000a__x000a_ * a particular problem the business or user needs solved_x000a_ * an ability (or capability) that is needed" sqref="B4:B40"/>
+    <dataValidation errorStyle="warning" showInputMessage="1" promptTitle="Statement of Need" prompt="Statement of WHAT a business or user needs, independent of HOW it is delivered. Can be a clear statement of the following:_x000a__x000a_ * a particular problem the business or user needs solved_x000a_ * an ability (or capability) that is needed" sqref="B4:B99"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.3" right="0.3" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
@@ -2987,7 +4104,7 @@
   <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1039" yWindow="192" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="885" yWindow="411" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Data!$A$3:$A$23</xm:f>
@@ -3009,8 +4126,8 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -3062,7 +4179,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>63</v>
@@ -3071,16 +4188,16 @@
         <v>29</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="G3" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J3" s="38" t="s">
         <v>0</v>
@@ -3110,7 +4227,7 @@
         <v>12</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J4" s="21"/>
     </row>
@@ -3138,7 +4255,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J5" s="24"/>
     </row>
@@ -3150,7 +4267,7 @@
         <v>37</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>24</v>
@@ -3166,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J6" s="24"/>
     </row>
@@ -3178,7 +4295,7 @@
         <v>38</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>27</v>
@@ -3194,7 +4311,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J7" s="24"/>
     </row>
@@ -3206,7 +4323,7 @@
         <v>39</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="21" t="s">
         <v>26</v>
@@ -3222,7 +4339,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J8" s="24"/>
     </row>
@@ -3234,7 +4351,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="21" t="s">
         <v>25</v>
@@ -3250,7 +4367,7 @@
         <v>17</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J9" s="24"/>
     </row>
@@ -3262,7 +4379,7 @@
         <v>41</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>23</v>
@@ -3278,7 +4395,7 @@
         <v>18</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J10" s="24"/>
     </row>
@@ -3290,7 +4407,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>28</v>
@@ -3306,7 +4423,7 @@
         <v>19</v>
       </c>
       <c r="I11" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J11" s="24"/>
     </row>
@@ -3318,7 +4435,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="21" t="s">
         <v>21</v>
@@ -3334,7 +4451,7 @@
         <v>67</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J12" s="24"/>
     </row>
@@ -3346,7 +4463,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>20</v>
@@ -3362,7 +4479,7 @@
         <v>68</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J13" s="24"/>
     </row>
@@ -3374,7 +4491,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D14" s="21" t="s">
         <v>22</v>
@@ -3390,7 +4507,7 @@
         <v>69</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="J14" s="24"/>
     </row>
@@ -3402,7 +4519,7 @@
         <v>46</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>24</v>
@@ -3418,7 +4535,7 @@
         <v>70</v>
       </c>
       <c r="I15" s="24" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="J15" s="24"/>
     </row>
@@ -3430,7 +4547,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>27</v>
@@ -3446,7 +4563,7 @@
         <v>71</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J16" s="24"/>
     </row>
@@ -3458,7 +4575,7 @@
         <v>48</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>26</v>
@@ -3474,7 +4591,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="J17" s="24"/>
     </row>
@@ -3486,7 +4603,7 @@
         <v>49</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>25</v>
@@ -3502,7 +4619,7 @@
         <v>16</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J18" s="24"/>
     </row>
@@ -3514,7 +4631,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>23</v>
@@ -3538,7 +4655,7 @@
         <v>51</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>28</v>
@@ -3562,7 +4679,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>21</v>
@@ -3586,7 +4703,7 @@
         <v>53</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>20</v>
@@ -3610,7 +4727,7 @@
         <v>54</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>22</v>
@@ -3634,7 +4751,7 @@
         <v>55</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>24</v>
@@ -3658,7 +4775,7 @@
         <v>56</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>27</v>
@@ -3682,7 +4799,7 @@
         <v>57</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>26</v>
@@ -3706,7 +4823,7 @@
         <v>58</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D27" s="21" t="s">
         <v>25</v>
@@ -3730,7 +4847,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D28" s="21" t="s">
         <v>23</v>
@@ -3807,7 +4924,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3836,23 +4953,23 @@
   <sheetData>
     <row r="1" spans="1:20" s="19" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="56" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D1" s="57"/>
       <c r="E1" s="58" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F1" s="57"/>
       <c r="G1" s="56" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H1" s="57"/>
       <c r="I1" s="52" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="52"/>
@@ -3867,11 +4984,11 @@
       </c>
       <c r="Q1" s="57"/>
       <c r="R1" s="56" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="S1" s="57"/>
       <c r="T1" s="56" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
@@ -3922,29 +5039,29 @@
     </row>
     <row r="3" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="49"/>
       <c r="E3" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H3" s="49"/>
       <c r="I3" s="16" t="s">
         <v>15</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L3" s="49"/>
       <c r="M3" s="48" t="s">
@@ -3961,34 +5078,34 @@
       </c>
       <c r="S3" s="49"/>
       <c r="T3" s="16" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="50"/>
       <c r="C4" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="50"/>
       <c r="E4" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F4" s="50"/>
       <c r="G4" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H4" s="50"/>
       <c r="I4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L4" s="50"/>
       <c r="M4" s="48" t="s">
@@ -4005,34 +5122,34 @@
       </c>
       <c r="S4" s="50"/>
       <c r="T4" s="46" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5" s="50"/>
       <c r="C5" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F5" s="50"/>
       <c r="G5" s="16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" s="50"/>
       <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L5" s="50"/>
       <c r="M5" s="48" t="s">
@@ -4049,34 +5166,34 @@
       </c>
       <c r="S5" s="50"/>
       <c r="T5" s="46" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B6" s="50"/>
       <c r="C6" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D6" s="50"/>
       <c r="E6" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F6" s="50"/>
       <c r="G6" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H6" s="50"/>
       <c r="I6" s="16" t="s">
         <v>18</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L6" s="50"/>
       <c r="M6" s="48" t="s">
@@ -4090,34 +5207,34 @@
       <c r="Q6" s="50"/>
       <c r="S6" s="50"/>
       <c r="T6" s="46" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="50"/>
       <c r="C7" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="50"/>
       <c r="E7" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="50"/>
       <c r="G7" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H7" s="50"/>
       <c r="I7" s="16" t="s">
         <v>19</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L7" s="50"/>
       <c r="M7" s="48" t="s">
@@ -4130,15 +5247,15 @@
     </row>
     <row r="8" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="50"/>
       <c r="C8" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" s="50"/>
       <c r="E8" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F8" s="50"/>
       <c r="H8" s="50"/>
@@ -4146,10 +5263,10 @@
         <v>67</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L8" s="50"/>
       <c r="M8" s="48" t="s">
@@ -4162,15 +5279,15 @@
     </row>
     <row r="9" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" s="49"/>
       <c r="E9" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F9" s="49"/>
       <c r="H9" s="49"/>
@@ -4178,10 +5295,10 @@
         <v>68</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="48" t="s">
@@ -4195,15 +5312,15 @@
     </row>
     <row r="10" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B10" s="49"/>
       <c r="C10" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" s="49"/>
       <c r="E10" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F10" s="49"/>
       <c r="H10" s="49"/>
@@ -4211,10 +5328,10 @@
         <v>69</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L10" s="49"/>
       <c r="M10" s="16" t="s">
@@ -4227,15 +5344,15 @@
     </row>
     <row r="11" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="49"/>
       <c r="E11" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F11" s="49"/>
       <c r="H11" s="49"/>
@@ -4243,10 +5360,10 @@
         <v>70</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L11" s="49"/>
       <c r="O11" s="49"/>
@@ -4255,15 +5372,15 @@
     </row>
     <row r="12" spans="1:20" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B12" s="49"/>
       <c r="C12" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F12" s="49"/>
       <c r="H12" s="49"/>
@@ -4271,10 +5388,10 @@
         <v>71</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L12" s="49"/>
       <c r="O12" s="49"/>
@@ -4283,223 +5400,223 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C13" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E13" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J13" s="48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K13" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="R13" s="45"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C14" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J14" s="48" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C15" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E15" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J15" s="48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K15" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J16" s="48" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="K16" s="48" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C17" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E17" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J17" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K17" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K18" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C19" s="55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J19" s="48" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K19" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C20" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E20" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K20" s="48" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E21" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J21" s="48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E22" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E23" s="46" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J23" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="48" t="s">
         <v>175</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -4522,6 +5639,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C67BA66DA962F46ADC647E52436A540" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00313d42feb63ce88f815c03c95c7c72">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -4570,12 +5693,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8267DCC-B72C-475F-A479-7C0462ACEBAF}">
   <ds:schemaRefs>
@@ -4585,6 +5702,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF435911-96A8-413D-99F3-7D7B22C7D0C6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C08EF68F-7F7A-4AB1-A257-30A49A75311D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4597,12 +5722,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/internal/2005/internalDocumentation"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF435911-96A8-413D-99F3-7D7B22C7D0C6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>